--- a/pred_ohlcv/54_21/2020-01-23 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BTG ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>1026.41708215</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1550.45138215</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1455.70248215</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-5643.103675540001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-5661.188884460001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5661.188884460001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5673.165084460001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-5823.255984460001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-6067.479784460002</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-6068.479784460002</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-6055.449684460002</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-5783.449684460002</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-5783.449684460002</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5070.742149910002</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4825.283949910002</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4485.975149910002</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4820.584849910002</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4801.564849910002</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4801.564849910002</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4774.244849910002</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4756.942498580002</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4803.942498580002</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5136.969898580002</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5220.465264030002</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5220.465264030002</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-6496.580992789999</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-6500.592592789999</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-7374.706491579999</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-6162.734941969999</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-5550.474441969999</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-5348.79524197</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-5757.245141969999</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-5780.806141969999</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-5033.310962669999</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-5116.673762669999</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-5360.095662669998</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-5754.993462669999</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-5754.943462669999</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-5885.535262669999</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-6891.262862669999</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-6635.978762669999</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-6619.788762669999</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-6619.788762669999</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-6499.881262669999</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-6139.305562669999</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-6142.809762669999</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-6419.347362669999</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-6516.773962669999</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-6936.652317749998</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-8091.783817749998</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-7926.547617749998</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-7730.396007789997</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-7312.181707789998</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-7221.781707789998</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-6954.590007789998</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-6907.559807789998</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-4289.287307789998</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-4408.247307789998</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-4408.197307789997</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-4872.480507789997</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-5024.627607789997</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-5236.026807789997</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-5341.131407789997</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-5882.269107789997</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-5606.511307789997</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-5606.511307789997</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-5606.511307789997</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-5776.720007789997</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-5776.720007789997</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-5763.720007789997</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-5792.720007789997</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-5679.720007789997</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-5666.539185179997</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-5666.539185179997</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-5681.545285179996</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-5627.654085179996</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-5620.349385179997</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-5620.349385179997</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-5627.417585179996</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-5628.417585179996</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-5646.639717489997</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-5682.660017489997</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-5728.488717489997</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-5388.787917489996</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-5490.096917489996</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-5490.096917489996</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-5852.933417489997</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-20957.97491507002</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-20919.39223019002</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-20609.90673489002</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-20450.48359448002</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-20526.78799448002</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-20627.22339448002</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-20779.11159448002</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-20779.11159448002</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-20605.91269448002</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-20605.91269448002</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-20401.52467362002</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-20316.04277362003</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BTG ohlcv.xlsx
@@ -4266,7 +4266,7 @@
         <v>-5643.103675540001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-5661.188884460001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5661.188884460001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5673.165084460001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-5823.255984460001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-6067.479784460002</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-6068.479784460002</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-6055.449684460002</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-5783.449684460002</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-5783.449684460002</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5070.742149910002</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4825.283949910002</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4395.566098580002</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4432.517098580002</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4667.713898580002</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5136.969898580002</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-6081.717912159998</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-5710.364512159998</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-5710.686016379998</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-5710.766016379998</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-6010.766016379998</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-6010.726016379998</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-6010.726016379998</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-6084.726016379998</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-6080.376016379998</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-6140.469016379998</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-5989.588716379998</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-5365.653392789998</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-4522.735392789999</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-4240.812792789999</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-5129.463992789999</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-5129.463992789999</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-5128.054592789999</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-5081.84339279</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-6496.580992789999</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-6500.592592789999</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-6703.887692789999</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-6640.474750779999</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-7374.706491579999</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-7374.706491579999</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-6557.094291579999</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-6976.906991579999</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-6976.906991579999</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-5550.474441969999</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-5348.79524197</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-5757.245141969999</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-5780.806141969999</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-5033.310962669999</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-5116.673762669999</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-5360.095662669998</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-5754.993462669999</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-5754.943462669999</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-5885.535262669999</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-6499.881262669999</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-6139.305562669999</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-6142.809762669999</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-6419.347362669999</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-6516.773962669999</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-6936.652317749998</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-8091.783817749998</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-6907.559807789998</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-4289.287307789998</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-4408.247307789998</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-4408.197307789997</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-4872.480507789997</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-5024.627607789997</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-5236.026807789997</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-5341.131407789997</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-5792.720007789997</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-5627.417585179996</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-5628.417585179996</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-5646.639717489997</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-21445.48467396002</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-21445.48467396002</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-20957.97491507002</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-20919.39223019002</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-20609.90673489002</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-20450.48359448002</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-20526.78799448002</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-20627.22339448002</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-20779.11159448002</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-20779.11159448002</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-20605.91269448002</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-20605.91269448002</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-20401.52467362002</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-20316.04277362003</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-20390.40757362002</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-20365.40757362002</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-20259.44837362002</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-20154.99107362003</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-20302.49107362003</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-20302.49107362003</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-20387.89937362002</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
